--- a/smartclassonlinesel/FlipLearn/Results/snapshots/Student_Execution_Results.xlsx
+++ b/smartclassonlinesel/FlipLearn/Results/snapshots/Student_Execution_Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>Username</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Student</t>
   </si>
   <si>
-    <t>Totaltime: 55 MS</t>
+    <t>Totaltime: 210 MS</t>
   </si>
   <si>
     <t>Fliplearn - Home</t>
@@ -59,13 +59,13 @@
     <t>Working</t>
   </si>
   <si>
-    <t>ets_anuparya</t>
+    <t>kamaljeetsingh_995671</t>
   </si>
   <si>
     <t>Login</t>
   </si>
   <si>
-    <t>Totaltime: 51 MS</t>
+    <t>Totaltime: 98 MS</t>
   </si>
   <si>
     <t>Fliplearn</t>
@@ -80,7 +80,7 @@
     <t>Wall</t>
   </si>
   <si>
-    <t>Totaltime: 57 MS</t>
+    <t>Totaltime: 75 MS</t>
   </si>
   <si>
     <t>Fliplearn - WallPosts</t>
@@ -101,7 +101,7 @@
     <t>Gallery</t>
   </si>
   <si>
-    <t>Totaltime: 56 MS</t>
+    <t>Totaltime: 89 MS</t>
   </si>
   <si>
     <t>Fliplearn - PictureGallery</t>
@@ -113,6 +113,9 @@
     <t>Events</t>
   </si>
   <si>
+    <t>Totaltime: 69 MS</t>
+  </si>
+  <si>
     <t>Fliplearn - Events</t>
   </si>
   <si>
@@ -134,7 +137,7 @@
     <t/>
   </si>
   <si>
-    <t>Totaltime: 52 MS</t>
+    <t>Totaltime: 79 MS</t>
   </si>
   <si>
     <t>Fliplearn - Report Attendance</t>
@@ -143,16 +146,7 @@
     <t>http://www.fliplearn.com/index.php/attendance/report</t>
   </si>
   <si>
-    <t>Totaltime: 59 MS</t>
-  </si>
-  <si>
-    <t>Fliplearn - StudentReport Marks</t>
-  </si>
-  <si>
-    <t>http://www.fliplearn.com/index.php/marks/studentReport?uuid=122058&amp;gid=4474</t>
-  </si>
-  <si>
-    <t>Totaltime: 53 MS</t>
+    <t>Totaltime: 73 MS</t>
   </si>
   <si>
     <t>Fliplearn - Dashboard</t>
@@ -164,25 +158,19 @@
     <t>Learn</t>
   </si>
   <si>
-    <t>Totaltime: 61 MS</t>
-  </si>
-  <si>
-    <t>Fliplearn - View MyClassroom</t>
-  </si>
-  <si>
-    <t>http://www.fliplearn.com/index.php/MyClassroom/1005?level_id=6</t>
-  </si>
-  <si>
     <t>Fliplearn - smartclass - English</t>
   </si>
   <si>
     <t>http://www.fliplearn.com/index.php/smartClass/study/11</t>
   </si>
   <si>
+    <t>Totaltime: 74 MS</t>
+  </si>
+  <si>
     <t>Fliplearn - Mathguru</t>
   </si>
   <si>
-    <t>http://www.fliplearn.com/index.php/mathguru/index?level_id=6</t>
+    <t>http://www.fliplearn.com/index.php/mathguru/index?level_id=10</t>
   </si>
 </sst>
 </file>
@@ -489,13 +477,13 @@
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -512,17 +500,17 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -536,20 +524,20 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -563,20 +551,20 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -590,20 +578,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11"/>
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -617,13 +607,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>50</v>
@@ -635,64 +625,6 @@
         <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
         <v>14</v>
       </c>
     </row>
